--- a/diagram_data/2017_diagram_data.xlsx
+++ b/diagram_data/2017_diagram_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,2190 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P6_Belfrage &amp; Hauf_2017_OrgStudies_The Gentle Art of Retroduction.png</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F2_P10_Belfrage &amp; Hauf_2017_OrgStudies_The Gentle Art of Retroduction.png</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P2_Burris, Rockmann &amp; Kimmons_2017_AMJ_The Value of Voice to Managers.png</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P4_Busch et al._2017_HR_Evaluation of an Organizational Health Intervention for Low-Skilled workers and Immigrants.png</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P9_Garg &amp; Eisenhardt_2017_AMJ_Unpacking the CEO-Board Relationship.png</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F2_P15_Garrett, Spreitzer &amp; Bacevice_2017_OrgStudies_Co-constructing a sense of Community at work - the emergence of community in coworking spaces.png</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P7_Glaser_2017_AMJ_Design Performances.png</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F2_P8_Glaser_2017_AMJ_Design Performances.png</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F3_P18_Grodal &amp; O'Mahony_2017_AMJ_How Does a Grand Challenge Become Displaced.png</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F2_P7_Hatch &amp; Schultz_2017_ASQ_Toward a Theory of Using History Authentically.png</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F4_P28_Hatch &amp; Schultz_2017_ASQ_Toward a Theory of Using History Authentically.png</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F2_P25_Kyratsis et al._2017_AMJ_Health Systems in Transition.png</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F2_P12_Lucas, Manikas, Mattingly &amp; Crider_2017_OrgStudies_Engaging and Misbehaving.png</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F2_P9_Massa, Helms, Voronov &amp; Wang_2017_AMJ_Emotions Uncorked.png</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F3_P25_Massa, Helms, Voronov &amp; Wang_2017_AMJ_Emotions Uncorked.png</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F2_P14_Muller_2017_OrgStudies_Brand centred control - a study of internal branding and normative control.png</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F2_P10_Obodaru_AMJ_2017_Forgone but not Forgotten Toward a Theory of Forgone Professional Identities.png</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F2_P14_Oliveira &amp; Lumineau_2017_OrgSci_How Coordination Trajectories Influence the Performance of Interorganizational Project Networks.png</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P5_Olsen_2017_OrgStudies_Rethinking Collective Action and Co-Evolution of the State and Institutional Entrepreneurs in Emerging Economies.png</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F2_P7_Olsen_2017_OrgStudies_Rethinking Collective Action and Co-Evolution of the State and Institutional Entrepreneurs in Emerging Economies.png</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F3_P11_Olsen_2017_OrgStudies_Rethinking Collective Action and Co-Evolution of the State and Institutional Entrepreneurs in Emerging Economies.png</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F4_P14_Olsen_2017_OrgStudies_Rethinking Collective Action and Co-Evolution of the State and Institutional Entrepreneurs in Emerging Economies.png</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F2_P16_Pine &amp; Mazmanian_2017_AMJ_Artful and Contorted Coordinating.png</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F2_P17_Pine &amp; Mazmanian_2017_AMJ_Artful and Contorted Coordinating.png</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P5_Powell &amp; Baker_2017_AMJ_In the Beginning Identity Processes and Organizing.png</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F2_P14_Powell &amp; Baker_2017_AMJ_In the Beginning Identity Processes and Organizing.png</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P10_Rogers et al._2017_ASQ_Seeing More than Orange - Organizational Respect and Positive Identity Transformation in a Prison Context.png</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F2_P37_Rogers et al._2017_ASQ_Seeing More than Orange - Organizational Respect and Positive Identity Transformation in a Prison Context.png</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P7_Smith, Haslam &amp; Nielsen_2017_OrgStudies_In Search of Identity Leaders.png</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F2_P18_Sonenshein et al._2017_ASQ_Competition of a Different Flavor - How a Strategic Group Identity Shapes Competition and Cooperation.png</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P2_Stewart et al._2017_AMJ_Those with the Most Find it Hardest to Share.png</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F3_P16_Stewart et al._2017_AMJ_Those with the Most Find it Hardest to Share.png</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F3_P21_Wiedner, Barrett &amp; Oborn_2017_AMJ_The Emergence of Change in Unexpected Places.png</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P15_Wijaya &amp; Heugens_2017_OrgStudies_Give me a Hallelujah.png</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F2_P10_Wright &amp; Nyberg_2017_AMJ_An Inconvenient Truth.png</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F2_P12_Wright &amp; Nyberg_2017_AMJ_An Inconvenient Truth.png</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F3_P20_Wright &amp; Nyberg_2017_AMJ_An Inconvenient Truth.png</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P21_Fan &amp; Zietsma_2017_AMJ_Constructing a Shared Governance Logic The Role of Emotions in Enabling Dually Embedded Agency.png</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P15_Fortwengel_2017_OrgSci_Practice Transfer in Organizations The Role of Governance.png</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P7_Grodal &amp; O'Mahony_2017_AMJ_How Does a Grand Challenge Become Displaced.png</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P19_Hajro, Gibson &amp; Pudelko_2017_AMJ_Knowledge Exchange Processes in Multicultural Teams.png</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P20_Heaphy_2017_AMJ_Dancing on Hot Coals.png</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P23_Howard-Grenville et al_2017_ASQ_If Chemists Don't Do it Who is Going to.png</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P9_Kyratsis et al._2017_AMJ_Health Systems in Transition.png</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P8_Obodaru_AMJ_2017_Forgone but not Forgotten Toward a Theory of Forgone Professional Identities.png</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P8_Oliveira &amp; Lumineau_2017_OrgSci_How Coordination Trajectories Influence the Performance of Interorganizational Project Networks.png</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P16_Pine &amp; Mazmanian_2017_AMJ_Artful and Contorted Coordinating.png</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P7_Sonenshein et al._2017_ASQ_Competition of a Different Flavor - How a Strategic Group Identity Shapes Competition and Cooperation.png</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P9_Vough, Bindl &amp; Parker_2017_HR_Proactivity Routines - The Role of Social Processes in how Employees Self-Initiate Change.png</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P5_Wiedner, Barrett &amp; Oborn_2017_AMJ_The Emergence of Change in Unexpected Places.png</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P10_Wright &amp; Nyberg_2017_AMJ_An Inconvenient Truth.png</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>final_figures/2017/F1_P29_Wright, Zammuto &amp; Liesch_2017_AMJ_Maintaining the Values of a Profession.png</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
